--- a/regression/testcase_ConvertLab_Stage.xlsx
+++ b/regression/testcase_ConvertLab_Stage.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,10 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否自动化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ConvertLab</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -95,10 +91,6 @@
   </si>
   <si>
     <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试用户设置微信营销渠道、配置微信营销页和活动后，模拟客户通过微信号参见活动的整个场景</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -107,9 +99,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1 新增一个营销页，包含会员注册表单、会员信息统计、图、文字，这些内容私人化定制。
-2 营销页包含一个自动任务。
-2 在营销渠道绑定用户的微信公共号，然后在此微信公共号上设置菜单，点击后跳出微信营销页。
+    <t>测试用户新增一个营销活动后，客户参加活动的整个场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账户登录到ConvertLab系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 新建一个营销活动，包含开始结束时间和相关任务
+2 将营销活动关联三个营销页
+3 建立这三个营销页的二维码
+4 通过微信扫描二维码的方式浏览三个营销页并且提交表格
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户通过微信渠道的营销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用户设置微信营销渠道、编辑微页面和活动后，模拟客户通过微信号参加活动的整个场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 在营销渠道绑定用户的微信公众号
+2 新增一个营销页，包含会员注册表单、会员信息统计、图、文字，这些内容私人化定制。
+3 营销页包含一个自动任务。
+4 微信公众号的自动回复菜单里设置该微页面
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -119,40 +140,29 @@
 3 点击微信公共号的菜单后，跳转出营销页。在营销页提交表单后，客户列表中的相关信息被完善。并且营销页的访问统计准确增加。
 4 任务建立成功，数据统计准确。
 5 静态智能目标组的人数增加
-6 微信的优惠券领取成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户新增微信营销页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户新增营销活动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试用户新增一个营销活动后，客户参加活动的整个场景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 使用测试账户登录到ConvertLab系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1 新建一个营销活动，包含开始结束时间和相关任务
-2 将营销活动关联三个营销页
-3 建立这三个营销页的二维码
-4 通过微信扫描二维码的方式浏览三个营销页并且提交表格
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1 营销活动在主页日历显示准确
+6 微信的优惠券领取成功
+7 用户时间轴事件显示正确
+8 微页面和表单的统计数据准确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 营销活动在主页日历显示准确
 2 相关任务建立正确和统计准确
 3 活动进展的数据展示准确
 4 扫描二维码后，提交表格后，营销活动数据变化准确
-5 在营销页提交表格后，客户信息的变化和提交的内容一致
-</t>
+5 在营销页提交表格后，客户信息的变化和提交的内容一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户新增营销活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户全渠道记录到列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户设置一个自动流程工作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -244,11 +254,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -257,13 +264,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -360,6 +364,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -395,6 +416,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -574,61 +612,61 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="3" customWidth="1"/>
-    <col min="4" max="6" width="20.625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="50.625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="30.625" style="3" customWidth="1"/>
-    <col min="9" max="14" width="9" customWidth="1"/>
+    <col min="1" max="1" width="5.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.625" style="2" customWidth="1"/>
+    <col min="4" max="6" width="20.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="34.875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="38" style="2" customWidth="1"/>
+    <col min="9" max="14" width="9" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="5" t="s">
+      <c r="M1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -637,94 +675,102 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="K2" s="1">
         <v>1</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" ht="108" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="K3" s="1">
         <v>1</v>
       </c>
       <c r="L3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -732,14 +778,23 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+    <row r="5" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -750,12 +805,12 @@
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -766,12 +821,12 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -782,12 +837,12 @@
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -798,12 +853,12 @@
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>

--- a/regression/testcase_ConvertLab_Stage.xlsx
+++ b/regression/testcase_ConvertLab_Stage.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="53">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,10 +112,6 @@
 3 建立这三个营销页的二维码
 4 通过微信扫描二维码的方式浏览三个营销页并且提交表格
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户通过微信渠道的营销</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -154,15 +150,279 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户新增营销活动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户全渠道记录到列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户设置一个自动流程工作</t>
+    <t>通过模拟客户各种营销渠道加入客户池，并检查【客户信息和时间轴】的准确性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账户登录到ConvertLab系统
+2 待加入的客户不在客户池中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 对于step1，客户池里只有一个客户，这个客户的时间轴记录了所有动作，无论那种操作提交的客户信息都被准确记录。
+2 对于step3,客户池里只有一个客户，这个客户的时间轴记录了所有动作，无论那种操作提交的客户信息都被准确更新。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 首先访问微页面提交表单（授权与未授权测试两次），然后关注微信公共号加入客户池；再在网站上提交表单，最后同一用户扫描嵌入网站的二维码
+2 在客户池里删除用户
+3 首先在网页上提交表单，然后关注二维码；再通过公共号访问微页面提交表单（授权与未授权测试两次）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 短消息发送微页面短链接给到特定客户
+2 邮件发送微页面短链接给到特定客户
+3 通过公众号自动回复发送微页面给到特定客户
+4 通过网页访问表单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账户登录到ConvertLab系统
+2 客户池中有用户，并且用户有正确的邮件地址、手机号
+3 有一个包含表单的微页面
+4 网页包含一个表单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户可以正确访问各渠道消息中的链接，而且客户时间轴和数据统计显示准确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 客户可以访问所有渠道的链接，并且微页面显示准确
+2 微页面的访问数据呈现准确
+3 客户的数据和时间轴呈现准确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 通过PC和手机网页访问微页面URL
+2 通过扫描URL二维码访问微页面
+3 通过公众号菜单和自动化访问微页面
+4 通过短消息和邮件访问微页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 全渠道可以无差别打开微页面
+2 微页面的来源统计准确
+3 提交的信息在用户信息修改准确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户在各种渠道访问网页，统计数据准确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户在各种渠道访问微页面，统计数据准确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 通过不同来源的PC和手机网页访问网页url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 网页访问人数统计准确
+2 网页来源人数统计准确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>客户通过</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>微信渠道</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的营销</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>用户新增</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>营销活动</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>全渠道把</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>客户画像</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>记录到列表</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>微页面</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>来源</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据追踪准确</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>网页</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>来源</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据追踪准确</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>各渠道发送正确的</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>微页面链接</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>用户设置一个</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>自动流程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>工作</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证一个覆盖率高的自动流程可以正常启动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账户登录到ConvertLab系统
+2 有微页面、绑定公众号，短消息和邮件渠道设置完整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 触发条件包含尽可能多的条件，选择满足所有条件时完成
+2 执行动作包含所有的动作和内容
+3 成功条件包含尽可能多的条件，选择满足任一条件时完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 自动任务的动作执行工程和作用范围准确
+2 成功条件满足后，任务结束
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -170,7 +430,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +453,15 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -609,11 +878,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -664,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>6</v>
@@ -681,19 +948,19 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>15</v>
@@ -723,7 +990,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>20</v>
@@ -735,7 +1002,7 @@
         <v>22</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>15</v>
@@ -754,7 +1021,7 @@
       </c>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="108" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -765,20 +1032,38 @@
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="54" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -789,65 +1074,161 @@
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+    <row r="6" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+    <row r="7" spans="1:14" ht="108" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
+    <row r="8" spans="1:14" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
@@ -865,6 +1246,54 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/regression/testcase_ConvertLab_Stage.xlsx
+++ b/regression/testcase_ConvertLab_Stage.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -429,7 +429,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -600,7 +600,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -633,26 +633,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -685,23 +668,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -880,7 +846,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
